--- a/MyToDo/Data/Schedule/Schedule.xlsx
+++ b/MyToDo/Data/Schedule/Schedule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -56,6 +56,18 @@
   </si>
   <si>
     <t xml:space="preserve">2656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0001-01-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dnauijhdajkda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">换个衣服给y</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1042,6 +1054,40 @@
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0</v>
       </c>
     </row>
